--- a/Logs/manual data.xlsx
+++ b/Logs/manual data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Temp in F about 1 minute after heater shut off. Units are centers of ~8inch boards that form ceiling. </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,19 +63,49 @@
   </si>
   <si>
     <t>off and has been off for a bit at: Sun Feb 12 22:53:26 PST 2012</t>
+  </si>
+  <si>
+    <t>Reset kill-a-watt on Mon Feb 13 19:47:21 PST 2012</t>
+  </si>
+  <si>
+    <t>Showered about noon</t>
+  </si>
+  <si>
+    <t>Raised thermostat to ~75 at Mon Feb 13 19:55:46 PST 2012. Humidity makes it feel colder and cold is making Rachel more sore.</t>
+  </si>
+  <si>
+    <t>Fixed bug that kept fan off at Mon Feb 13 20:22:18 PST 2012</t>
+  </si>
+  <si>
+    <t>Fixed another bug Mon Feb 13 20:59:13 PST 2012</t>
+  </si>
+  <si>
+    <t>Heater on Mon Feb 13 20:59:13 PST 2012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
     <font>
       <sz val="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -96,8 +126,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -108,7 +144,13 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,11 +494,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="340527176"/>
-        <c:axId val="340530152"/>
+        <c:axId val="270760344"/>
+        <c:axId val="270763320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="340527176"/>
+        <c:axId val="270760344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -465,7 +507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="340530152"/>
+        <c:crossAx val="270763320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -473,7 +515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340530152"/>
+        <c:axId val="270763320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70.0"/>
@@ -485,7 +527,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="340527176"/>
+        <c:crossAx val="270760344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -511,16 +553,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>774700</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -862,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1137,6 +1179,36 @@
         <v>12</v>
       </c>
     </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1144,7 +1216,7 @@
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>

--- a/Logs/manual data.xlsx
+++ b/Logs/manual data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Temp in F about 1 minute after heater shut off. Units are centers of ~8inch boards that form ceiling. </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Heater on Mon Feb 13 20:59:13 PST 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lowered thermostate to ~72 at Tue Feb 14 14:14:54 PST 2012. Rain has dried and gone away. </t>
+  </si>
+  <si>
+    <t>Heater on Tue Feb 14 22:21:24 PST 2012</t>
   </si>
 </sst>
 </file>
@@ -494,11 +500,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="270760344"/>
-        <c:axId val="270763320"/>
+        <c:axId val="356266184"/>
+        <c:axId val="356269160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="270760344"/>
+        <c:axId val="356266184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -507,7 +513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270763320"/>
+        <c:crossAx val="356269160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -515,7 +521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270763320"/>
+        <c:axId val="356269160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70.0"/>
@@ -527,7 +533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270760344"/>
+        <c:crossAx val="356266184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -904,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1209,6 +1215,16 @@
         <v>18</v>
       </c>
     </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Logs/manual data.xlsx
+++ b/Logs/manual data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Temp in F about 1 minute after heater shut off. Units are centers of ~8inch boards that form ceiling. </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Heater on Tue Feb 14 22:21:24 PST 2012</t>
+  </si>
+  <si>
+    <t>Heater off Thu Feb 16 00:20:18 PST 2012</t>
   </si>
 </sst>
 </file>
@@ -910,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1225,6 +1228,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Logs/manual data.xlsx
+++ b/Logs/manual data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Temp in F about 1 minute after heater shut off. Units are centers of ~8inch boards that form ceiling. </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Heater off Thu Feb 16 00:20:18 PST 2012</t>
+  </si>
+  <si>
+    <t>Changed fan angle late night feb 18. Returned fan to previous angle around noon feb 19.</t>
+  </si>
+  <si>
+    <t>Disconnected XXXL capacitor Sun Feb 19 around 7:20</t>
+  </si>
+  <si>
+    <t>Opened window Feb 22 about 11:35AM</t>
   </si>
 </sst>
 </file>
@@ -503,11 +512,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="356266184"/>
-        <c:axId val="356269160"/>
+        <c:axId val="256250824"/>
+        <c:axId val="256278408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="356266184"/>
+        <c:axId val="256250824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -516,7 +525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="356269160"/>
+        <c:crossAx val="256278408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -524,7 +533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="356269160"/>
+        <c:axId val="256278408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70.0"/>
@@ -536,14 +545,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="356266184"/>
+        <c:crossAx val="256250824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -913,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1233,6 +1241,21 @@
         <v>21</v>
       </c>
     </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
